--- a/hw-teams.xlsx
+++ b/hw-teams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="2050" yWindow="0" windowWidth="18270" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>כרמית</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>ישראל</t>
+  </si>
+  <si>
+    <t>נחום</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -487,6 +490,9 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
